--- a/2017.xlsx
+++ b/2017.xlsx
@@ -3256,7 +3256,9 @@
       </c>
       <c r="F5" s="16" t="n"/>
       <c r="G5" s="16" t="n"/>
-      <c r="H5" s="17" t="n"/>
+      <c r="H5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I5" s="17" t="n"/>
       <c r="J5" s="17" t="n"/>
       <c r="K5" s="17" t="n"/>
@@ -3286,7 +3288,9 @@
       </c>
       <c r="F6" s="16" t="n"/>
       <c r="G6" s="16" t="n"/>
-      <c r="H6" s="17" t="n"/>
+      <c r="H6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" s="17" t="n"/>
       <c r="J6" s="17" t="n"/>
       <c r="K6" s="17" t="n"/>
@@ -3316,7 +3320,9 @@
       </c>
       <c r="F7" s="16" t="n"/>
       <c r="G7" s="16" t="n"/>
-      <c r="H7" s="17" t="n"/>
+      <c r="H7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="17" t="n"/>
       <c r="J7" s="17" t="n"/>
       <c r="K7" s="17" t="n"/>
@@ -3346,7 +3352,9 @@
       </c>
       <c r="F8" s="16" t="n"/>
       <c r="G8" s="16" t="n"/>
-      <c r="H8" s="17" t="n"/>
+      <c r="H8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="17" t="n"/>
       <c r="J8" s="17" t="n"/>
       <c r="K8" s="17" t="n"/>
@@ -3376,7 +3384,9 @@
       </c>
       <c r="F9" s="16" t="n"/>
       <c r="G9" s="16" t="n"/>
-      <c r="H9" s="17" t="n"/>
+      <c r="H9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" s="17" t="n"/>
       <c r="J9" s="17" t="n"/>
       <c r="K9" s="17" t="n"/>
@@ -3406,7 +3416,9 @@
       </c>
       <c r="F10" s="16" t="n"/>
       <c r="G10" s="16" t="n"/>
-      <c r="H10" s="17" t="n"/>
+      <c r="H10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I10" s="17" t="n"/>
       <c r="J10" s="17" t="n"/>
       <c r="K10" s="17" t="n"/>
@@ -3436,7 +3448,9 @@
       </c>
       <c r="F11" s="16" t="n"/>
       <c r="G11" s="16" t="n"/>
-      <c r="H11" s="17" t="n"/>
+      <c r="H11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I11" s="17" t="n"/>
       <c r="J11" s="17" t="n"/>
       <c r="K11" s="17" t="n"/>
@@ -3466,7 +3480,9 @@
       </c>
       <c r="F12" s="16" t="n"/>
       <c r="G12" s="16" t="n"/>
-      <c r="H12" s="17" t="n"/>
+      <c r="H12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I12" s="17" t="n"/>
       <c r="J12" s="17" t="n"/>
       <c r="K12" s="17" t="n"/>
@@ -3496,7 +3512,9 @@
       </c>
       <c r="F13" s="16" t="n"/>
       <c r="G13" s="16" t="n"/>
-      <c r="H13" s="17" t="n"/>
+      <c r="H13" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I13" s="17" t="n"/>
       <c r="J13" s="17" t="n"/>
       <c r="K13" s="17" t="n"/>
@@ -3556,7 +3574,9 @@
       </c>
       <c r="F15" s="16" t="n"/>
       <c r="G15" s="16" t="n"/>
-      <c r="H15" s="17" t="n"/>
+      <c r="H15" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" s="17" t="n"/>
       <c r="J15" s="17" t="n"/>
       <c r="K15" s="17" t="n"/>
@@ -3586,7 +3606,9 @@
       </c>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
-      <c r="H16" s="17" t="n"/>
+      <c r="H16" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I16" s="17" t="n"/>
       <c r="J16" s="17" t="n"/>
       <c r="K16" s="17" t="n"/>
@@ -3646,7 +3668,9 @@
       </c>
       <c r="F18" s="16" t="n"/>
       <c r="G18" s="16" t="n"/>
-      <c r="H18" s="17" t="n"/>
+      <c r="H18" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I18" s="17" t="n"/>
       <c r="J18" s="17" t="n"/>
       <c r="K18" s="17" t="n"/>
@@ -3678,7 +3702,9 @@
       <c r="G19" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="17" t="n"/>
+      <c r="H19" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I19" s="17" t="n"/>
       <c r="J19" s="17" t="n"/>
       <c r="K19" s="17" t="n"/>
@@ -3710,7 +3736,9 @@
       <c r="G20" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="17" t="n"/>
+      <c r="H20" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I20" s="17" t="n"/>
       <c r="J20" s="17" t="n"/>
       <c r="K20" s="17" t="n"/>
@@ -3740,7 +3768,9 @@
       </c>
       <c r="F21" s="16" t="n"/>
       <c r="G21" s="16" t="n"/>
-      <c r="H21" s="17" t="n"/>
+      <c r="H21" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I21" s="17" t="n"/>
       <c r="J21" s="17" t="n"/>
       <c r="K21" s="17" t="n"/>
@@ -3770,7 +3800,9 @@
       </c>
       <c r="F22" s="16" t="n"/>
       <c r="G22" s="16" t="n"/>
-      <c r="H22" s="17" t="n"/>
+      <c r="H22" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" s="17" t="n"/>
       <c r="J22" s="17" t="n"/>
       <c r="K22" s="17" t="n"/>
@@ -3802,7 +3834,9 @@
       <c r="G23" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="17" t="n"/>
+      <c r="H23" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I23" s="17" t="n"/>
       <c r="J23" s="17" t="n"/>
       <c r="K23" s="17" t="n"/>
@@ -3834,7 +3868,9 @@
       <c r="G24" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H24" s="17" t="n"/>
+      <c r="H24" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I24" s="17" t="n"/>
       <c r="J24" s="17" t="n"/>
       <c r="K24" s="17" t="n"/>
@@ -3868,7 +3904,9 @@
       <c r="G25" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="H25" s="17" t="n"/>
+      <c r="H25" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="17" t="n"/>
       <c r="J25" s="17" t="n"/>
       <c r="K25" s="17" t="n"/>
@@ -3902,7 +3940,9 @@
       <c r="G26" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="H26" s="17" t="n"/>
+      <c r="H26" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" s="17" t="n"/>
       <c r="J26" s="17" t="n"/>
       <c r="K26" s="17" t="n"/>
@@ -3932,7 +3972,9 @@
       </c>
       <c r="F27" s="16" t="n"/>
       <c r="G27" s="16" t="n"/>
-      <c r="H27" s="17" t="n"/>
+      <c r="H27" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" s="17" t="n"/>
       <c r="J27" s="17" t="n"/>
       <c r="K27" s="17" t="n"/>
@@ -3964,7 +4006,9 @@
       <c r="G28" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H28" s="17" t="n"/>
+      <c r="H28" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I28" s="17" t="n"/>
       <c r="J28" s="17" t="n"/>
       <c r="K28" s="17" t="n"/>
@@ -3996,7 +4040,9 @@
       <c r="G29" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H29" s="17" t="n"/>
+      <c r="H29" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I29" s="17" t="n"/>
       <c r="J29" s="17" t="n"/>
       <c r="K29" s="17" t="n"/>
@@ -4026,7 +4072,9 @@
       </c>
       <c r="F30" s="16" t="n"/>
       <c r="G30" s="16" t="n"/>
-      <c r="H30" s="17" t="n"/>
+      <c r="H30" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I30" s="17" t="n"/>
       <c r="J30" s="17" t="n"/>
       <c r="K30" s="17" t="n"/>
@@ -4058,7 +4106,9 @@
       <c r="G31" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H31" s="17" t="n"/>
+      <c r="H31" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I31" s="17" t="n"/>
       <c r="J31" s="17" t="n"/>
       <c r="K31" s="17" t="n"/>
@@ -4090,7 +4140,9 @@
       <c r="G32" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H32" s="17" t="n"/>
+      <c r="H32" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I32" s="17" t="n"/>
       <c r="J32" s="17" t="n"/>
       <c r="K32" s="17" t="n"/>
@@ -4122,7 +4174,9 @@
       <c r="G33" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="17" t="n"/>
+      <c r="H33" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I33" s="17" t="n"/>
       <c r="J33" s="24" t="n"/>
       <c r="K33" s="17" t="n"/>
@@ -4154,7 +4208,9 @@
       <c r="G34" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H34" s="17" t="n"/>
+      <c r="H34" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I34" s="17" t="n"/>
       <c r="J34" s="17" t="n"/>
       <c r="K34" s="17" t="n"/>
@@ -4186,7 +4242,9 @@
       <c r="G35" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H35" s="17" t="n"/>
+      <c r="H35" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I35" s="17" t="n"/>
       <c r="J35" s="17" t="n"/>
       <c r="K35" s="17" t="n"/>
@@ -4216,7 +4274,9 @@
       </c>
       <c r="F36" s="16" t="n"/>
       <c r="G36" s="16" t="n"/>
-      <c r="H36" s="17" t="n"/>
+      <c r="H36" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I36" s="17" t="n"/>
       <c r="J36" s="17" t="n"/>
       <c r="K36" s="17" t="n"/>
@@ -4248,7 +4308,9 @@
       <c r="G37" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H37" s="17" t="n"/>
+      <c r="H37" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I37" s="17" t="n"/>
       <c r="J37" s="17" t="n"/>
       <c r="K37" s="17" t="n"/>
@@ -4280,7 +4342,9 @@
       <c r="G38" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="17" t="n"/>
+      <c r="H38" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I38" s="17" t="n"/>
       <c r="J38" s="17" t="n"/>
       <c r="K38" s="17" t="n"/>
@@ -4312,7 +4376,9 @@
       <c r="G39" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="17" t="n"/>
+      <c r="H39" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I39" s="17" t="n"/>
       <c r="J39" s="17" t="n"/>
       <c r="K39" s="17" t="n"/>
@@ -4344,7 +4410,9 @@
       <c r="G40" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="17" t="n"/>
+      <c r="H40" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I40" s="17" t="n"/>
       <c r="J40" s="17" t="n"/>
       <c r="K40" s="17" t="n"/>
@@ -4376,7 +4444,9 @@
       <c r="G41" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H41" s="17" t="n"/>
+      <c r="H41" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I41" s="17" t="n"/>
       <c r="J41" s="17" t="n"/>
       <c r="K41" s="17" t="n"/>
@@ -4406,7 +4476,9 @@
       </c>
       <c r="F42" s="16" t="n"/>
       <c r="G42" s="16" t="n"/>
-      <c r="H42" s="17" t="n"/>
+      <c r="H42" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I42" s="17" t="n"/>
       <c r="J42" s="17" t="n"/>
       <c r="K42" s="17" t="n"/>
@@ -4436,7 +4508,9 @@
       </c>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="16" t="n"/>
-      <c r="H43" s="17" t="n"/>
+      <c r="H43" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I43" s="17" t="n"/>
       <c r="J43" s="17" t="n"/>
       <c r="K43" s="17" t="n"/>
@@ -4466,7 +4540,9 @@
       </c>
       <c r="F44" s="16" t="n"/>
       <c r="G44" s="16" t="n"/>
-      <c r="H44" s="17" t="n"/>
+      <c r="H44" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I44" s="17" t="n"/>
       <c r="J44" s="17" t="n"/>
       <c r="K44" s="17" t="n"/>
@@ -4498,7 +4574,9 @@
       <c r="G45" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H45" s="17" t="n"/>
+      <c r="H45" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I45" s="17" t="n"/>
       <c r="J45" s="17" t="n"/>
       <c r="K45" s="17" t="n"/>
@@ -4530,7 +4608,9 @@
       <c r="G46" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H46" s="17" t="n"/>
+      <c r="H46" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I46" s="17" t="n"/>
       <c r="J46" s="17" t="n"/>
       <c r="K46" s="17" t="n"/>
@@ -4560,7 +4640,9 @@
       </c>
       <c r="F47" s="16" t="n"/>
       <c r="G47" s="16" t="n"/>
-      <c r="H47" s="17" t="n"/>
+      <c r="H47" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I47" s="17" t="n"/>
       <c r="J47" s="17" t="n"/>
       <c r="K47" s="17" t="n"/>
@@ -4590,7 +4672,9 @@
       </c>
       <c r="F48" s="16" t="n"/>
       <c r="G48" s="16" t="n"/>
-      <c r="H48" s="17" t="n"/>
+      <c r="H48" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I48" s="17" t="n"/>
       <c r="J48" s="17" t="n"/>
       <c r="K48" s="17" t="n"/>
@@ -4620,7 +4704,9 @@
       </c>
       <c r="F49" s="16" t="n"/>
       <c r="G49" s="16" t="n"/>
-      <c r="H49" s="17" t="n"/>
+      <c r="H49" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I49" s="17" t="n"/>
       <c r="J49" s="17" t="n"/>
       <c r="K49" s="17" t="n"/>
@@ -4652,7 +4738,9 @@
       <c r="G50" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H50" s="17" t="n"/>
+      <c r="H50" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I50" s="17" t="n"/>
       <c r="J50" s="17" t="n"/>
       <c r="K50" s="17" t="n"/>
@@ -4684,7 +4772,9 @@
       <c r="G51" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="H51" s="17" t="n"/>
+      <c r="H51" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I51" s="17" t="n"/>
       <c r="J51" s="17" t="n"/>
       <c r="K51" s="17" t="n"/>
@@ -4716,7 +4806,9 @@
       <c r="G52" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="17" t="n"/>
+      <c r="H52" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I52" s="17" t="n"/>
       <c r="J52" s="17" t="n"/>
       <c r="K52" s="17" t="n"/>
@@ -4806,7 +4898,9 @@
       </c>
       <c r="F55" s="16" t="n"/>
       <c r="G55" s="16" t="n"/>
-      <c r="H55" s="17" t="n"/>
+      <c r="H55" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I55" s="17" t="n"/>
       <c r="J55" s="26" t="n"/>
       <c r="K55" s="17" t="n"/>
@@ -4836,7 +4930,9 @@
       </c>
       <c r="F56" s="16" t="n"/>
       <c r="G56" s="16" t="n"/>
-      <c r="H56" s="17" t="n"/>
+      <c r="H56" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I56" s="17" t="n"/>
       <c r="J56" s="17" t="n"/>
       <c r="K56" s="17" t="n"/>
@@ -4866,7 +4962,9 @@
       </c>
       <c r="F57" s="16" t="n"/>
       <c r="G57" s="16" t="n"/>
-      <c r="H57" s="17" t="n"/>
+      <c r="H57" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I57" s="17" t="n"/>
       <c r="J57" s="17" t="n"/>
       <c r="K57" s="17" t="n"/>
@@ -4896,7 +4994,9 @@
       </c>
       <c r="F58" s="16" t="n"/>
       <c r="G58" s="16" t="n"/>
-      <c r="H58" s="17" t="n"/>
+      <c r="H58" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="I58" s="17" t="n"/>
       <c r="J58" s="17" t="n"/>
       <c r="K58" s="17" t="n"/>
@@ -4928,7 +5028,9 @@
       <c r="G59" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="23" t="n"/>
+      <c r="H59" s="23" t="n">
+        <v>0</v>
+      </c>
       <c r="I59" s="23" t="n"/>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
